--- a/biology/Médecine/Nancy_Bédard/Nancy_Bédard.xlsx
+++ b/biology/Médecine/Nancy_Bédard/Nancy_Bédard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nancy_B%C3%A9dard</t>
+          <t>Nancy_Bédard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nancy Bédard est une infirmière et syndicaliste québécoise. Elle pratique comme infirmière au Centre hospitalier universitaire de Québec à partir de 1991. Elle est présidente de la Fédération interprofessionnelle de la santé du Québec de 2017 à 2021.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nancy_B%C3%A9dard</t>
+          <t>Nancy_Bédard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Implication syndicale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle participe à la grève des infirmières de 1999[1] durant laquelle le gouvernement de Lucien Bouchard imposera d'importantes sanctions aux infirmières et leurs syndicats[2].
-Elle est présidente du Syndicat interprofessionnel du CHU de Québec jusqu'en 2014, lorsqu'elle rejoint le comité exécutif de la FIQ. En 2017, elle succède ensuite à Régine Laurent à la présidence de la FIQ. Son premier mandat est marqué par des projets-pilotes pour l'implantation de ratios infirmière-patients, sans toutefois parvenir à obtenir une loi[3]. Elle mène aussi la charge contre le temps supplémentaire obligatoire[4].
-Dans le tumulte de la pandémie mondiale de Covid-19 et de la fin des négociations du secteur public[5], elle est réélue pour un deuxième mandat en juin 2021[6].
-Elle quitte ses fonctions à la suite d'un vote de confiance trois mois plus tard en octobre 2021[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle participe à la grève des infirmières de 1999 durant laquelle le gouvernement de Lucien Bouchard imposera d'importantes sanctions aux infirmières et leurs syndicats.
+Elle est présidente du Syndicat interprofessionnel du CHU de Québec jusqu'en 2014, lorsqu'elle rejoint le comité exécutif de la FIQ. En 2017, elle succède ensuite à Régine Laurent à la présidence de la FIQ. Son premier mandat est marqué par des projets-pilotes pour l'implantation de ratios infirmière-patients, sans toutefois parvenir à obtenir une loi. Elle mène aussi la charge contre le temps supplémentaire obligatoire.
+Dans le tumulte de la pandémie mondiale de Covid-19 et de la fin des négociations du secteur public, elle est réélue pour un deuxième mandat en juin 2021.
+Elle quitte ses fonctions à la suite d'un vote de confiance trois mois plus tard en octobre 2021.
 </t>
         </is>
       </c>
